--- a/biology/Médecine/1254_en_santé_et_médecine/1254_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1254_en_santé_et_médecine/1254_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1254_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1254_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1254 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1254_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1254_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le synode d'Albi, après celui tenu à Béziers en 1246, rappelle que le droit canonique interdit rigoureusement aux chrétiens de se faire soigner par un médecin juif, prohibition généralement ignorée[1].
-Fondation de la maison-Dieu du Bourgneuf à Beaune[2].
-Fondation à Arles d'un hôpital que son fondateur, Rostang de Bions, « confie aux soins de ses plus proches descendants et qui passera au siècle suivant sous le contrôle du chapitre de la cathédrale[3] ».
-Fondation du Großes Heiliges Kreuz (de) (« grand hôpital Sainte-Croix ») à Goslar en Allemagne[4].
-À la mort de Conrad IV, roi de Germanie, Manfred, fils naturel de Frédéric, est accusé « sans doute à tort » de l'avoir fait empoisonner par son médecin, Jean Maurus de Salerne, avec de la poudre de diamant mêlée de scammonée[5].
-1254-1256 : dans son Commentaire sur les Sentences de Pierre Lombard[6], Thomas d'Aquin qualifie la lèpre de « maladie contagieuse » (morbus contagiosus), et ce, « dans un contexte où il ne s'agit pas seulement de contagion au sens moral, mais bien, aussi, de la transmission d'une maladie[7] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le synode d'Albi, après celui tenu à Béziers en 1246, rappelle que le droit canonique interdit rigoureusement aux chrétiens de se faire soigner par un médecin juif, prohibition généralement ignorée.
+Fondation de la maison-Dieu du Bourgneuf à Beaune.
+Fondation à Arles d'un hôpital que son fondateur, Rostang de Bions, « confie aux soins de ses plus proches descendants et qui passera au siècle suivant sous le contrôle du chapitre de la cathédrale ».
+Fondation du Großes Heiliges Kreuz (de) (« grand hôpital Sainte-Croix ») à Goslar en Allemagne.
+À la mort de Conrad IV, roi de Germanie, Manfred, fils naturel de Frédéric, est accusé « sans doute à tort » de l'avoir fait empoisonner par son médecin, Jean Maurus de Salerne, avec de la poudre de diamant mêlée de scammonée.
+1254-1256 : dans son Commentaire sur les Sentences de Pierre Lombard, Thomas d'Aquin qualifie la lèpre de « maladie contagieuse » (morbus contagiosus), et ce, « dans un contexte où il ne s'agit pas seulement de contagion au sens moral, mais bien, aussi, de la transmission d'une maladie ».</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1254_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1254_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +560,14 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Cantorinus, médecin au service de Pierre d'Aigueblanche, évêque de Hereford en Angleterre[8].
-Fl. Pierre de Sonbrenun, médecin mentionné à Bayel, en Champagne[8].
-Fl. Pierre, barbier au service de Simon de Montfort,  propriétaire à La Réole, en Guyenne[9].
-Fl. Pierre Canalis, barbier, mentionné à Fanjeaux, près de Carcassonne[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Cantorinus, médecin au service de Pierre d'Aigueblanche, évêque de Hereford en Angleterre.
+Fl. Pierre de Sonbrenun, médecin mentionné à Bayel, en Champagne.
+Fl. Pierre, barbier au service de Simon de Montfort,  propriétaire à La Réole, en Guyenne.
+Fl. Pierre Canalis, barbier, mentionné à Fanjeaux, près de Carcassonne.</t>
         </is>
       </c>
     </row>
